--- a/Edu. Research/ProgrammingingeophysicsPre.xlsx
+++ b/Edu. Research/ProgrammingingeophysicsPre.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julien-Pooya/Downloads/Downloads Safari/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julien-Pooya/Documents/GitHub/GEOF_UiB/Edu. Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C85D40-8525-C042-9756-DA7F67B47E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E677899C-645F-B44E-8943-661FF5B40755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programmingingeophysics" sheetId="1" r:id="rId1"/>
@@ -597,15 +597,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12</v>
       </c>
@@ -713,52 +713,8 @@
       <c r="R2">
         <v>5</v>
       </c>
-      <c r="S2">
-        <f>I2-I$15</f>
-        <v>-1</v>
-      </c>
-      <c r="T2">
-        <f t="shared" ref="T2:AB2" si="0">J2-J$15</f>
-        <v>-1</v>
-      </c>
-      <c r="U2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="W2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="X2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f>SUM(S2:AB2)</f>
-        <v>-6</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11</v>
       </c>
@@ -810,52 +766,8 @@
       <c r="R3">
         <v>5</v>
       </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S13" si="1">I3-I$15</f>
-        <v>-1</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T13" si="2">J3-J$15</f>
-        <v>-2</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U13" si="3">K3-K$15</f>
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V13" si="4">L3-L$15</f>
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W13" si="5">M3-M$15</f>
-        <v>-1</v>
-      </c>
-      <c r="X3">
-        <f t="shared" ref="X3:X13" si="6">N3-N$15</f>
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y13" si="7">O3-O$15</f>
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z13" si="8">P3-P$15</f>
-        <v>-2</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" ref="AA3:AA13" si="9">Q3-Q$15</f>
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <f t="shared" ref="AB3:AB13" si="10">R3-R$15</f>
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <f t="shared" ref="AC3:AC13" si="11">SUM(S3:AB3)</f>
-        <v>-8</v>
-      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10</v>
       </c>
@@ -907,52 +819,8 @@
       <c r="R4">
         <v>5</v>
       </c>
-      <c r="S4">
-        <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <f t="shared" si="11"/>
-        <v>-4</v>
-      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1004,52 +872,8 @@
       <c r="R5">
         <v>5</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -1101,52 +925,8 @@
       <c r="R6">
         <v>5</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1198,52 +978,8 @@
       <c r="R7">
         <v>5</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f t="shared" si="11"/>
-        <v>-3</v>
-      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1295,52 +1031,8 @@
       <c r="R8">
         <v>5</v>
       </c>
-      <c r="S8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="9"/>
-        <v>-2</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f t="shared" si="11"/>
-        <v>-3</v>
-      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1392,52 +1084,8 @@
       <c r="R9">
         <v>5</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="2"/>
-        <v>-2</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="8"/>
-        <v>-1</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1489,52 +1137,8 @@
       <c r="R10">
         <v>5</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="X10">
-        <f t="shared" si="6"/>
-        <v>-2</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="7"/>
-        <v>-2</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -1586,52 +1190,8 @@
       <c r="R11">
         <v>5</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V11">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="X11">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="7"/>
-        <v>-1</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="9"/>
-        <v>-2</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1683,52 +1243,8 @@
       <c r="R12">
         <v>5</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="8"/>
-        <v>-2</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="9"/>
-        <v>-2</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="11"/>
-        <v>-5</v>
-      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1778,82 +1294,6 @@
         <v>3</v>
       </c>
       <c r="R13">
-        <v>5</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="5"/>
-        <v>-2</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="6"/>
-        <v>-1</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="9"/>
-        <v>-2</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="11"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15">
-        <v>5</v>
-      </c>
-      <c r="K15">
-        <v>4</v>
-      </c>
-      <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="P15">
-        <v>5</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
-      <c r="R15">
         <v>5</v>
       </c>
     </row>

--- a/Edu. Research/ProgrammingingeophysicsPre.xlsx
+++ b/Edu. Research/ProgrammingingeophysicsPre.xlsx
@@ -1,20 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10916"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Julien-Pooya/Documents/GitHub/GEOF_UiB/Edu. Research/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E677899C-645F-B44E-8943-661FF5B40755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E309B1E6-C7D3-6349-9063-9FC1EDEBFF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5000" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Programmingingeophysics" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Programmingingeophysics!$I$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Programmingingeophysics!$I$2:$I$13</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Programmingingeophysics!$N$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Programmingingeophysics!$N$2:$N$13</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Programmingingeophysics!$O$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Programmingingeophysics!$O$2:$O$13</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Programmingingeophysics!$P$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Programmingingeophysics!$P$2:$P$13</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Programmingingeophysics!$Q$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Programmingingeophysics!$Q$2:$Q$13</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Programmingingeophysics!$R$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Programmingingeophysics!$R$2:$R$13</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Programmingingeophysics!$J$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Programmingingeophysics!$I$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Programmingingeophysics!$I$2:$I$13</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Programmingingeophysics!$J$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Programmingingeophysics!$J$2:$J$13</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Programmingingeophysics!$K$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Programmingingeophysics!$K$2:$K$13</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Programmingingeophysics!$L$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Programmingingeophysics!$L$2:$L$13</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Programmingingeophysics!$M$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Programmingingeophysics!$M$2:$M$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Programmingingeophysics!$J$2:$J$13</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Programmingingeophysics!$N$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Programmingingeophysics!$N$2:$N$13</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Programmingingeophysics!$O$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Programmingingeophysics!$O$2:$O$13</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Programmingingeophysics!$P$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Programmingingeophysics!$P$2:$P$13</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Programmingingeophysics!$Q$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Programmingingeophysics!$Q$2:$Q$13</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Programmingingeophysics!$R$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Programmingingeophysics!$R$2:$R$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Programmingingeophysics!$K$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Programmingingeophysics!$I$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Programmingingeophysics!$I$2:$I$13</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Programmingingeophysics!$J$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Programmingingeophysics!$J$2:$J$13</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Programmingingeophysics!$K$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Programmingingeophysics!$K$2:$K$13</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Programmingingeophysics!$L$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Programmingingeophysics!$L$2:$L$13</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Programmingingeophysics!$M$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Programmingingeophysics!$M$2:$M$13</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Programmingingeophysics!$K$2:$K$13</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Programmingingeophysics!$N$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Programmingingeophysics!$N$2:$N$13</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Programmingingeophysics!$O$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Programmingingeophysics!$O$2:$O$13</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Programmingingeophysics!$P$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Programmingingeophysics!$P$2:$P$13</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Programmingingeophysics!$Q$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Programmingingeophysics!$Q$2:$Q$13</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Programmingingeophysics!$R$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Programmingingeophysics!$R$2:$R$13</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Programmingingeophysics!$L$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Programmingingeophysics!$L$2:$L$13</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Programmingingeophysics!$M$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Programmingingeophysics!$M$2:$M$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -600,10 +662,23 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E1" sqref="E1:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="46" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="43" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="58.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="57" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
